--- a/InputData/dist-heat/EoCtUH/Efficiency of Conversion to Usable Heat.xlsx
+++ b/InputData/dist-heat/EoCtUH/Efficiency of Conversion to Usable Heat.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\dist-heat\EoCtUH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-texas\InputData\dist-heat\EoCtUH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843E5DCE-5BE1-48F8-B588-2575D3565297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1470" windowWidth="14595" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="EoCtUH" sheetId="3" r:id="rId3"/>
+    <sheet name="Texas Notes" sheetId="4" r:id="rId3"/>
+    <sheet name="EoCtUH" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>Source:</t>
   </si>
@@ -94,6 +94,39 @@
     <t>Efficiency (dimensionless)</t>
   </si>
   <si>
+    <t xml:space="preserve">Not sure I agree with their assumption that CHP efficiency is a good proxy for district heating efficiency. </t>
+  </si>
+  <si>
+    <t>This is especially true in Texas where most of the district heating systems do not use CHP (see work on the BFoHfC spreadsheet)</t>
+  </si>
+  <si>
+    <t>Here is an industry booklet from Cleaver Brooks describing the efficiency of its natural gas boilers:</t>
+  </si>
+  <si>
+    <t>http://cleaverbrooks.com/reference-center/insights/Boiler%20Efficiency%20Guide.pdf</t>
+  </si>
+  <si>
+    <t>see Figure 1 page 7</t>
+  </si>
+  <si>
+    <t>a natural gas boiler ranges from 80-86% efficient depending on the flue gas temperature.</t>
+  </si>
+  <si>
+    <t>so, let's assume that district heating efficiency is</t>
+  </si>
+  <si>
+    <t>for CHP systems (using the EPS numbers)</t>
+  </si>
+  <si>
+    <t>for boiler systems (averaging 0.8 and 0.86)</t>
+  </si>
+  <si>
+    <t>then for Texas, which is about 1/3 CHP and 2/3 boilers</t>
+  </si>
+  <si>
+    <t>efficiency is on average</t>
+  </si>
+  <si>
     <t>electricity</t>
   </si>
   <si>
@@ -124,27 +157,21 @@
     <t>hydrogen</t>
   </si>
   <si>
-    <t>Heat Pump Representation and Electricity</t>
-  </si>
-  <si>
-    <t>for the "electricity" fuel type in this variable.</t>
+    <t>Heat Pump Efficiency (Coefficient of Peformance)</t>
+  </si>
+  <si>
+    <t>European Heat Pump Association</t>
+  </si>
+  <si>
+    <t>Large Scale Heat Pumps in Europe: 16 Examples of Realized Projects</t>
+  </si>
+  <si>
+    <t>https://www.ehpa.org/fileadmin/red/03._Media/03.02_Studies_and_reports/Large_heat_pumps_in_Europe_MDN_II_final4_small.pdf</t>
   </si>
   <si>
     <t>Usable Heat Efficiency</t>
   </si>
   <si>
-    <t>Heat Pump Efficiency (Coefficient of Peformance)</t>
-  </si>
-  <si>
-    <t>European Heat Pump Association</t>
-  </si>
-  <si>
-    <t>Large Scale Heat Pumps in Europe: 16 Examples of Realized Projects</t>
-  </si>
-  <si>
-    <t>https://www.ehpa.org/fileadmin/red/03._Media/03.02_Studies_and_reports/Large_heat_pumps_in_Europe_MDN_II_final4_small.pdf</t>
-  </si>
-  <si>
     <t>Heat Pumps</t>
   </si>
   <si>
@@ -194,18 +221,15 @@
   </si>
   <si>
     <t>Heat pump district heat final delivered efficiency</t>
-  </si>
-  <si>
-    <t>Heat pumps are represented by using an efficiency greater than 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -284,7 +308,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -293,21 +317,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -403,23 +432,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -455,23 +467,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -647,156 +642,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B10" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B12" s="10">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B14" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{5E084D22-3871-4C9B-A603-594DF5DB766D}"/>
+    <hyperlink ref="B14" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -804,22 +782,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" customWidth="1"/>
+    <col min="1" max="1" width="53.1328125" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2000</v>
       </c>
@@ -842,7 +823,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.65</v>
       </c>
@@ -865,236 +846,236 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
         <f>AVERAGE(A3:G3)</f>
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>4.4000000000000004</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11">
+        <v>3.1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3.05</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>6.7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>5.3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>3.4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>4.8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>6.8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>4.8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20" s="14">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>3.4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23" s="14">
         <v>2</v>
       </c>
-      <c r="B12">
-        <v>3.1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>3.05</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>6.7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>5.3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>3.4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>4.8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>6.8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>4.8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>10</v>
-      </c>
-      <c r="B20">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>11</v>
-      </c>
-      <c r="B21" s="13">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>12</v>
-      </c>
-      <c r="B22">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>13</v>
-      </c>
-      <c r="B23">
-        <v>3.4</v>
-      </c>
       <c r="C23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>14</v>
-      </c>
-      <c r="B24" s="13">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>2.6</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>16</v>
-      </c>
-      <c r="B26">
-        <v>4.5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="14">
-        <f>AVERAGEIFS(B11:B26,C11:C26,"district heating system")</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="15">
+        <f>AVERAGEIFS(B10:B25,C10:C25,"district heating system")</f>
         <v>3.6642857142857141</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="15">
-        <f>A6*B28</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="16">
+        <f>A6*B27</f>
         <v>2.5702346938775507</v>
       </c>
     </row>
@@ -1104,113 +1085,203 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>0.83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B13" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <f>(1/3)*B10+(2/3)*B11</f>
+        <v>0.78699999999999992</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" display="http://cleaverbrooks.com/reference-center/insights/Boiler Efficiency Guide.pdf"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.73046875" customWidth="1"/>
+    <col min="2" max="2" width="15.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5">
-        <f>Data!B32</f>
-        <v>2.5702346938775507</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="18">
+        <f>B3*Data!B27</f>
+        <v>2.8837928571428568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5">
-        <f>Data!A$6</f>
-        <v>0.7014285714285714</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Texas Notes'!B15</f>
+        <v>0.78699999999999992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5">
-        <f>Data!A$6</f>
-        <v>0.7014285714285714</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <f>B3</f>
+        <v>0.78699999999999992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B5" s="5">
-        <f>Data!A$6</f>
-        <v>0.7014285714285714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <f t="shared" ref="B5:B11" si="0">B4</f>
+        <v>0.78699999999999992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B6" s="5">
-        <f>Data!A$6</f>
-        <v>0.7014285714285714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.78699999999999992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B7" s="5">
-        <f>Data!A$6</f>
-        <v>0.7014285714285714</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.78699999999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5">
-        <f>Data!A$6</f>
-        <v>0.7014285714285714</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.78699999999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B9" s="5">
-        <f>Data!A$6</f>
-        <v>0.7014285714285714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.78699999999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5">
-        <f>Data!A$6</f>
-        <v>0.7014285714285714</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.78699999999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B11" s="5">
-        <f>Data!A$6</f>
-        <v>0.7014285714285714</v>
+        <f t="shared" si="0"/>
+        <v>0.78699999999999992</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/dist-heat/EoCtUH/Efficiency of Conversion to Usable Heat.xlsx
+++ b/InputData/dist-heat/EoCtUH/Efficiency of Conversion to Usable Heat.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-texas\InputData\dist-heat\EoCtUH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\dist-heat\EoCtUH\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843E5DCE-5BE1-48F8-B588-2575D3565297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645"/>
+    <workbookView xWindow="1125" yWindow="1470" windowWidth="14595" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Texas Notes" sheetId="4" r:id="rId3"/>
-    <sheet name="EoCtUH" sheetId="3" r:id="rId4"/>
+    <sheet name="EoCtUH" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>Source:</t>
   </si>
@@ -94,39 +94,6 @@
     <t>Efficiency (dimensionless)</t>
   </si>
   <si>
-    <t xml:space="preserve">Not sure I agree with their assumption that CHP efficiency is a good proxy for district heating efficiency. </t>
-  </si>
-  <si>
-    <t>This is especially true in Texas where most of the district heating systems do not use CHP (see work on the BFoHfC spreadsheet)</t>
-  </si>
-  <si>
-    <t>Here is an industry booklet from Cleaver Brooks describing the efficiency of its natural gas boilers:</t>
-  </si>
-  <si>
-    <t>http://cleaverbrooks.com/reference-center/insights/Boiler%20Efficiency%20Guide.pdf</t>
-  </si>
-  <si>
-    <t>see Figure 1 page 7</t>
-  </si>
-  <si>
-    <t>a natural gas boiler ranges from 80-86% efficient depending on the flue gas temperature.</t>
-  </si>
-  <si>
-    <t>so, let's assume that district heating efficiency is</t>
-  </si>
-  <si>
-    <t>for CHP systems (using the EPS numbers)</t>
-  </si>
-  <si>
-    <t>for boiler systems (averaging 0.8 and 0.86)</t>
-  </si>
-  <si>
-    <t>then for Texas, which is about 1/3 CHP and 2/3 boilers</t>
-  </si>
-  <si>
-    <t>efficiency is on average</t>
-  </si>
-  <si>
     <t>electricity</t>
   </si>
   <si>
@@ -157,6 +124,15 @@
     <t>hydrogen</t>
   </si>
   <si>
+    <t>Heat Pump Representation and Electricity</t>
+  </si>
+  <si>
+    <t>for the "electricity" fuel type in this variable.</t>
+  </si>
+  <si>
+    <t>Usable Heat Efficiency</t>
+  </si>
+  <si>
     <t>Heat Pump Efficiency (Coefficient of Peformance)</t>
   </si>
   <si>
@@ -169,9 +145,6 @@
     <t>https://www.ehpa.org/fileadmin/red/03._Media/03.02_Studies_and_reports/Large_heat_pumps_in_Europe_MDN_II_final4_small.pdf</t>
   </si>
   <si>
-    <t>Usable Heat Efficiency</t>
-  </si>
-  <si>
     <t>Heat Pumps</t>
   </si>
   <si>
@@ -221,15 +194,18 @@
   </si>
   <si>
     <t>Heat pump district heat final delivered efficiency</t>
+  </si>
+  <si>
+    <t>Heat pumps are represented by using an efficiency greater than 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -308,7 +284,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -317,26 +293,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -432,6 +403,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -467,6 +455,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -642,139 +647,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.3984375" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B10" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B12" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B14" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{5E084D22-3871-4C9B-A603-594DF5DB766D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -782,25 +804,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.1328125" customWidth="1"/>
-    <col min="2" max="2" width="9.06640625" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2000</v>
       </c>
@@ -823,7 +842,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.65</v>
       </c>
@@ -846,236 +865,236 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <f>AVERAGE(A3:G3)</f>
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="12" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3.1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3.05</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>6.7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>5.3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>3.4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>4.8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>6.8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>4.8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C20" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" s="13">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
         <v>47</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>3.4</v>
+      </c>
+      <c r="C23" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>14</v>
+      </c>
+      <c r="B24" s="13">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>2.6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>4.5</v>
+      </c>
+      <c r="C26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>3.1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>3.05</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>6.7</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B28" s="14">
+        <f>AVERAGEIFS(B11:B26,C11:C26,"district heating system")</f>
+        <v>3.6642857142857141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>5.3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>3.4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>4.8</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>6.8</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>4.8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>11</v>
-      </c>
-      <c r="B20" s="14">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>12</v>
-      </c>
-      <c r="B21">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>13</v>
-      </c>
-      <c r="B22">
-        <v>3.4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>14</v>
-      </c>
-      <c r="B23" s="14">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>15</v>
-      </c>
-      <c r="B24">
-        <v>2.6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>16</v>
-      </c>
-      <c r="B25">
-        <v>4.5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="15">
-        <f>AVERAGEIFS(B10:B25,C10:C25,"district heating system")</f>
-        <v>3.6642857142857141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="16">
-        <f>A6*B27</f>
+      <c r="B32" s="15">
+        <f>A6*B28</f>
         <v>2.5702346938775507</v>
       </c>
     </row>
@@ -1085,203 +1104,113 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>0.83</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B13" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B15">
-        <f>(1/3)*B10+(2/3)*B11</f>
-        <v>0.78699999999999992</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" display="http://cleaverbrooks.com/reference-center/insights/Boiler Efficiency Guide.pdf"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.73046875" customWidth="1"/>
-    <col min="2" max="2" width="15.1328125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="18">
-        <f>B3*Data!B27</f>
-        <v>2.8837928571428568</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5">
+        <f>Data!B32</f>
+        <v>2.5702346938775507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5">
-        <f>'Texas Notes'!B15</f>
-        <v>0.78699999999999992</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <f>Data!A$6</f>
+        <v>0.7014285714285714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5">
-        <f>B3</f>
-        <v>0.78699999999999992</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <f>Data!A$6</f>
+        <v>0.7014285714285714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5">
-        <f t="shared" ref="B5:B11" si="0">B4</f>
-        <v>0.78699999999999992</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <f>Data!A$6</f>
+        <v>0.7014285714285714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5">
-        <f t="shared" si="0"/>
-        <v>0.78699999999999992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <f>Data!A$6</f>
+        <v>0.7014285714285714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5">
-        <f t="shared" si="0"/>
-        <v>0.78699999999999992</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <f>Data!A$6</f>
+        <v>0.7014285714285714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5">
-        <f t="shared" si="0"/>
-        <v>0.78699999999999992</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+        <f>Data!A$6</f>
+        <v>0.7014285714285714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5">
-        <f t="shared" si="0"/>
-        <v>0.78699999999999992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+        <f>Data!A$6</f>
+        <v>0.7014285714285714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5">
-        <f t="shared" si="0"/>
-        <v>0.78699999999999992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+        <f>Data!A$6</f>
+        <v>0.7014285714285714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5">
-        <f t="shared" si="0"/>
-        <v>0.78699999999999992</v>
+        <f>Data!A$6</f>
+        <v>0.7014285714285714</v>
       </c>
     </row>
   </sheetData>
